--- a/Microsoft Access/Sample Databases/EntertainmentAgencySchema.xlsx
+++ b/Microsoft Access/Sample Databases/EntertainmentAgencySchema.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="340" windowWidth="25600" windowHeight="19460" tabRatio="500"/>
+    <workbookView xWindow="3520" yWindow="1000" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="EntertainmentAgencySchema.txt" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="140">
   <si>
     <t>Table Name</t>
   </si>
@@ -51,7 +51,7 @@
     <t>AgentID</t>
   </si>
   <si>
-    <t>int IDENTITY(1, 1)</t>
+    <t>int</t>
   </si>
   <si>
     <t>Yes</t>
@@ -171,9 +171,6 @@
     <t>ContractPrice</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>Customers.CustomerID</t>
   </si>
   <si>
@@ -231,6 +228,9 @@
     <t>Musical_Styles.StyleID</t>
   </si>
   <si>
+    <t>StyleStrength</t>
+  </si>
+  <si>
     <t>Indexes for Entertainer_Styles</t>
   </si>
   <si>
@@ -273,9 +273,6 @@
     <t>DateEntered</t>
   </si>
   <si>
-    <t>EntPricePerDay</t>
-  </si>
-  <si>
     <t>Indexes for Entertainers</t>
   </si>
   <si>
@@ -298,6 +295,9 @@
   </si>
   <si>
     <t>Musical_Preferences</t>
+  </si>
+  <si>
+    <t>PreferenceSeq</t>
   </si>
   <si>
     <t>Indexes for Musical_Preferences</t>
@@ -816,21 +816,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H261"/>
+  <dimension ref="A1:H265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="A242" sqref="A242:XFD243"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -875,6 +873,9 @@
       <c r="D3">
         <v>4</v>
       </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
@@ -1092,6 +1093,9 @@
       <c r="D26">
         <v>4</v>
       </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
       <c r="G26" t="s">
         <v>11</v>
       </c>
@@ -1270,6 +1274,12 @@
       <c r="D46">
         <v>4</v>
       </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
       <c r="G46" t="s">
         <v>11</v>
       </c>
@@ -1337,7 +1347,7 @@
         <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D52">
         <v>4</v>
@@ -1346,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1354,7 +1364,7 @@
         <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D53">
         <v>4</v>
@@ -1363,15 +1373,15 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="B54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -1380,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1390,7 +1400,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="1" customFormat="1">
@@ -1403,7 +1413,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1418,7 +1428,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1433,12 +1443,12 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="B65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -1497,15 +1507,15 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="B73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C73" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D73">
         <v>4</v>
@@ -1517,15 +1527,15 @@
         <v>11</v>
       </c>
       <c r="H73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="B74" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C74" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -1540,15 +1550,15 @@
         <v>11</v>
       </c>
       <c r="H74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="B75" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" t="s">
         <v>62</v>
-      </c>
-      <c r="C75" t="s">
-        <v>63</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -1564,7 +1574,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="1" customFormat="1">
@@ -1577,12 +1587,12 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="B80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -1592,12 +1602,12 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="B83" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -1615,12 +1625,12 @@
     </row>
     <row r="86" spans="1:8">
       <c r="B86" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="B87" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -1661,15 +1671,15 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="B92" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C92" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D92">
         <v>4</v>
@@ -1681,18 +1691,21 @@
         <v>11</v>
       </c>
       <c r="H92" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="B93" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C93" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D93">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>11</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -1701,78 +1714,84 @@
         <v>11</v>
       </c>
       <c r="H93" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="B94" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" t="s">
-        <v>26</v>
+      <c r="C94" t="s">
+        <v>62</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="1" customFormat="1">
-      <c r="A96" s="1" t="s">
+    <row r="97" spans="1:8" s="1" customFormat="1">
+      <c r="A97" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
-      <c r="A97" t="s">
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
-      <c r="B98" t="s">
-        <v>53</v>
-      </c>
-    </row>
     <row r="99" spans="1:8">
-      <c r="A99" t="s">
-        <v>26</v>
+      <c r="B99" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
-      <c r="B101" t="s">
-        <v>68</v>
-      </c>
-    </row>
     <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>26</v>
+      <c r="B102" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
         <v>30</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="B104" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="B105" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" t="s">
-        <v>26</v>
+      <c r="B106" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -1780,142 +1799,139 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="1" customFormat="1">
-      <c r="A108" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" s="1" t="s">
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="1" customFormat="1">
+      <c r="A109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D108" s="1" t="s">
+      <c r="C109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F109" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="G109" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H108" s="1" t="s">
+      <c r="H109" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
-      <c r="A109" t="s">
+    <row r="110" spans="1:8">
+      <c r="A110" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="B110" t="s">
-        <v>53</v>
-      </c>
-      <c r="C110" t="s">
-        <v>10</v>
-      </c>
-      <c r="D110">
-        <v>4</v>
-      </c>
-      <c r="G110" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="B111" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C111" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D111">
-        <v>50</v>
+        <v>4</v>
+      </c>
+      <c r="E111" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="B112" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C112" t="s">
         <v>13</v>
       </c>
       <c r="D112">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="B113" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C113" t="s">
         <v>13</v>
       </c>
       <c r="D113">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="B114" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C114" t="s">
         <v>13</v>
       </c>
       <c r="D114">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="B115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C115" t="s">
         <v>13</v>
       </c>
       <c r="D115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="B116" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C116" t="s">
         <v>13</v>
       </c>
       <c r="D116">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="B117" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C117" t="s">
         <v>13</v>
       </c>
       <c r="D117">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="B118" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C118" t="s">
         <v>13</v>
       </c>
       <c r="D118">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="B119" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C119" t="s">
         <v>13</v>
@@ -1924,42 +1940,39 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:4">
       <c r="B120" t="s">
+        <v>82</v>
+      </c>
+      <c r="C120" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="B121" t="s">
         <v>83</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C121" t="s">
         <v>21</v>
-      </c>
-      <c r="D120">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="B121" t="s">
-        <v>84</v>
-      </c>
-      <c r="C121" t="s">
-        <v>23</v>
       </c>
       <c r="D121">
         <v>8</v>
       </c>
-      <c r="F121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" s="1" customFormat="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" s="1" customFormat="1">
       <c r="A124" s="1" t="s">
         <v>28</v>
       </c>
@@ -1967,22 +1980,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:4">
       <c r="B126" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>30</v>
       </c>
@@ -1992,7 +2005,7 @@
     </row>
     <row r="129" spans="1:8">
       <c r="B129" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -2033,12 +2046,12 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="B134" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C134" t="s">
         <v>10</v>
@@ -2046,13 +2059,19 @@
       <c r="D134">
         <v>4</v>
       </c>
+      <c r="E134" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
       <c r="G134" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="B135" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C135" t="s">
         <v>13</v>
@@ -2063,7 +2082,7 @@
     </row>
     <row r="136" spans="1:8">
       <c r="B136" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C136" t="s">
         <v>13</v>
@@ -2074,7 +2093,7 @@
     </row>
     <row r="137" spans="1:8">
       <c r="B137" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C137" t="s">
         <v>13</v>
@@ -2085,7 +2104,7 @@
     </row>
     <row r="138" spans="1:8">
       <c r="B138" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C138" t="s">
         <v>13</v>
@@ -2101,7 +2120,7 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="141" spans="1:8" s="1" customFormat="1">
@@ -2114,15 +2133,12 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>30</v>
-      </c>
-      <c r="B142" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="B143" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -2132,144 +2148,156 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" s="1" customFormat="1">
-      <c r="A146" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="B145" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="B146" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149" t="s">
+        <v>3</v>
+      </c>
+      <c r="E149" t="s">
+        <v>4</v>
+      </c>
+      <c r="F149" t="s">
+        <v>5</v>
+      </c>
+      <c r="G149" t="s">
+        <v>6</v>
+      </c>
+      <c r="H149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" s="1" customFormat="1">
+      <c r="A150" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="B151" t="s">
+        <v>33</v>
+      </c>
+      <c r="C151" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151">
+        <v>4</v>
+      </c>
+      <c r="E151" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151" t="s">
+        <v>11</v>
+      </c>
+      <c r="H151" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="B152" t="s">
+        <v>67</v>
+      </c>
+      <c r="C152" t="s">
+        <v>62</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152" t="s">
+        <v>11</v>
+      </c>
+      <c r="H152" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="B153" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="B148" t="s">
-        <v>33</v>
-      </c>
-      <c r="C148" t="s">
-        <v>50</v>
-      </c>
-      <c r="D148">
-        <v>4</v>
-      </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-      <c r="G148" t="s">
-        <v>11</v>
-      </c>
-      <c r="H148" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="B149" t="s">
-        <v>68</v>
-      </c>
-      <c r="C149" t="s">
-        <v>50</v>
-      </c>
-      <c r="D149">
-        <v>4</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-      <c r="G149" t="s">
-        <v>11</v>
-      </c>
-      <c r="H149" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" s="1" customFormat="1">
-      <c r="A152" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153" t="s">
-        <v>94</v>
+      <c r="C153" t="s">
+        <v>62</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="B154" t="s">
-        <v>33</v>
+      <c r="A154" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="A156" t="s">
-        <v>95</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" s="1" customFormat="1">
+      <c r="A156" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="157" spans="1:8">
-      <c r="B157" t="s">
-        <v>68</v>
+      <c r="A157" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" t="s">
-        <v>26</v>
+      <c r="B158" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>30</v>
-      </c>
-      <c r="B159" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="B160" t="s">
-        <v>33</v>
+      <c r="A160" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="B161" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -2279,152 +2307,128 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" s="1" customFormat="1">
-      <c r="A164" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B164" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B163" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="B164" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="B165" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" s="1" customFormat="1">
+      <c r="A168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D164" s="1" t="s">
+      <c r="C168" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="E168" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F164" s="1" t="s">
+      <c r="F168" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G164" s="1" t="s">
+      <c r="G168" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H164" s="1" t="s">
+      <c r="H168" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="A165" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="B166" t="s">
-        <v>68</v>
-      </c>
-      <c r="C166" t="s">
-        <v>10</v>
-      </c>
-      <c r="D166">
-        <v>4</v>
-      </c>
-      <c r="G166" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="B167" t="s">
-        <v>97</v>
-      </c>
-      <c r="C167" t="s">
-        <v>13</v>
-      </c>
-      <c r="D167">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="A168" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" s="1" customFormat="1">
-      <c r="A170" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>29</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="B170" t="s">
+        <v>67</v>
+      </c>
+      <c r="C170" t="s">
+        <v>62</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+      <c r="E170" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" t="s">
-        <v>30</v>
-      </c>
       <c r="B171" t="s">
-        <v>31</v>
+        <v>97</v>
+      </c>
+      <c r="C171" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171">
+        <v>75</v>
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="B172" t="s">
-        <v>68</v>
+      <c r="A172" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" s="1" customFormat="1">
-      <c r="A175" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="B174" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" t="s">
+        <v>30</v>
+      </c>
+      <c r="B175" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" t="s">
-        <v>99</v>
+      <c r="B176" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="177" spans="1:8">
-      <c r="B177" t="s">
-        <v>100</v>
-      </c>
-      <c r="C177" t="s">
-        <v>21</v>
-      </c>
-      <c r="D177">
-        <v>8</v>
-      </c>
-      <c r="E177" t="s">
-        <v>11</v>
-      </c>
-      <c r="G177" t="s">
-        <v>11</v>
+      <c r="A177" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -2432,634 +2436,643 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
-      <c r="A179" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" s="1" customFormat="1">
-      <c r="A180" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>29</v>
+    <row r="179" spans="1:8" s="1" customFormat="1">
+      <c r="A179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" t="s">
-        <v>30</v>
-      </c>
       <c r="B181" t="s">
-        <v>31</v>
+        <v>100</v>
+      </c>
+      <c r="C181" t="s">
+        <v>21</v>
+      </c>
+      <c r="D181">
+        <v>8</v>
+      </c>
+      <c r="E181" t="s">
+        <v>11</v>
+      </c>
+      <c r="G181" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="182" spans="1:8">
-      <c r="B182" t="s">
-        <v>100</v>
+      <c r="A182" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="A184" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" s="1" customFormat="1">
-      <c r="A185" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B185" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" s="1" customFormat="1">
+      <c r="A184" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" t="s">
+        <v>30</v>
+      </c>
+      <c r="B185" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="B186" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" s="1" customFormat="1">
+      <c r="A189" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C185" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D185" s="1" t="s">
+      <c r="C189" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E185" s="1" t="s">
+      <c r="E189" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F185" s="1" t="s">
+      <c r="F189" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G185" s="1" t="s">
+      <c r="G189" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H185" s="1" t="s">
+      <c r="H189" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
-      <c r="A186" t="s">
+    <row r="190" spans="1:8">
+      <c r="A190" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="B187" t="s">
-        <v>103</v>
-      </c>
-      <c r="C187" t="s">
-        <v>13</v>
-      </c>
-      <c r="D187">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
-      <c r="B188" t="s">
-        <v>104</v>
-      </c>
-      <c r="C188" t="s">
-        <v>63</v>
-      </c>
-      <c r="D188">
-        <v>2</v>
-      </c>
-      <c r="E188" t="s">
-        <v>11</v>
-      </c>
-      <c r="G188" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
-      <c r="B189" t="s">
-        <v>105</v>
-      </c>
-      <c r="C189" t="s">
-        <v>63</v>
-      </c>
-      <c r="D189">
-        <v>2</v>
-      </c>
-      <c r="E189" t="s">
-        <v>11</v>
-      </c>
-      <c r="G189" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
-      <c r="B190" t="s">
-        <v>106</v>
-      </c>
-      <c r="C190" t="s">
-        <v>21</v>
-      </c>
-      <c r="D190">
-        <v>8</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="B191" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C191" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D191">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="B192" t="s">
+        <v>104</v>
+      </c>
+      <c r="C192" t="s">
+        <v>62</v>
+      </c>
+      <c r="D192">
+        <v>2</v>
+      </c>
+      <c r="E192" t="s">
+        <v>11</v>
+      </c>
+      <c r="G192" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="B193" t="s">
+        <v>105</v>
+      </c>
+      <c r="C193" t="s">
+        <v>62</v>
+      </c>
+      <c r="D193">
+        <v>2</v>
+      </c>
+      <c r="E193" t="s">
+        <v>11</v>
+      </c>
+      <c r="G193" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="B194" t="s">
+        <v>106</v>
+      </c>
+      <c r="C194" t="s">
+        <v>21</v>
+      </c>
+      <c r="D194">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="B195" t="s">
+        <v>107</v>
+      </c>
+      <c r="C195" t="s">
+        <v>21</v>
+      </c>
+      <c r="D195">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="B196" t="s">
         <v>108</v>
       </c>
-      <c r="C192" t="s">
-        <v>63</v>
-      </c>
-      <c r="D192">
-        <v>2</v>
-      </c>
-      <c r="F192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="B193" t="s">
+      <c r="C196" t="s">
+        <v>62</v>
+      </c>
+      <c r="D196">
+        <v>2</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="B197" t="s">
         <v>109</v>
       </c>
-      <c r="C193" t="s">
-        <v>63</v>
-      </c>
-      <c r="D193">
-        <v>2</v>
-      </c>
-      <c r="F193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="B194" t="s">
+      <c r="C197" t="s">
+        <v>62</v>
+      </c>
+      <c r="D197">
+        <v>2</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="B198" t="s">
         <v>110</v>
       </c>
-      <c r="C194" t="s">
-        <v>63</v>
-      </c>
-      <c r="D194">
-        <v>2</v>
-      </c>
-      <c r="F194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="B195" t="s">
+      <c r="C198" t="s">
+        <v>62</v>
+      </c>
+      <c r="D198">
+        <v>2</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="B199" t="s">
         <v>111</v>
       </c>
-      <c r="C195" t="s">
-        <v>63</v>
-      </c>
-      <c r="D195">
-        <v>2</v>
-      </c>
-      <c r="F195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="B196" t="s">
+      <c r="C199" t="s">
+        <v>62</v>
+      </c>
+      <c r="D199">
+        <v>2</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="B200" t="s">
         <v>112</v>
       </c>
-      <c r="C196" t="s">
-        <v>63</v>
-      </c>
-      <c r="D196">
-        <v>2</v>
-      </c>
-      <c r="F196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="B197" t="s">
+      <c r="C200" t="s">
+        <v>62</v>
+      </c>
+      <c r="D200">
+        <v>2</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="B201" t="s">
         <v>113</v>
       </c>
-      <c r="C197" t="s">
-        <v>63</v>
-      </c>
-      <c r="D197">
-        <v>2</v>
-      </c>
-      <c r="F197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="B198" t="s">
+      <c r="C201" t="s">
+        <v>62</v>
+      </c>
+      <c r="D201">
+        <v>2</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="B202" t="s">
         <v>114</v>
       </c>
-      <c r="C198" t="s">
-        <v>63</v>
-      </c>
-      <c r="D198">
-        <v>2</v>
-      </c>
-      <c r="F198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="B199" t="s">
+      <c r="C202" t="s">
+        <v>62</v>
+      </c>
+      <c r="D202">
+        <v>2</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="B203" t="s">
         <v>115</v>
       </c>
-      <c r="C199" t="s">
-        <v>63</v>
-      </c>
-      <c r="D199">
-        <v>2</v>
-      </c>
-      <c r="F199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="B200" t="s">
+      <c r="C203" t="s">
+        <v>62</v>
+      </c>
+      <c r="D203">
+        <v>2</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="B204" t="s">
         <v>116</v>
       </c>
-      <c r="C200" t="s">
-        <v>63</v>
-      </c>
-      <c r="D200">
-        <v>2</v>
-      </c>
-      <c r="F200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="B201" t="s">
+      <c r="C204" t="s">
+        <v>62</v>
+      </c>
+      <c r="D204">
+        <v>2</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="B205" t="s">
         <v>117</v>
       </c>
-      <c r="C201" t="s">
-        <v>63</v>
-      </c>
-      <c r="D201">
-        <v>2</v>
-      </c>
-      <c r="F201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="B202" t="s">
+      <c r="C205" t="s">
+        <v>62</v>
+      </c>
+      <c r="D205">
+        <v>2</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="B206" t="s">
         <v>118</v>
       </c>
-      <c r="C202" t="s">
-        <v>63</v>
-      </c>
-      <c r="D202">
-        <v>2</v>
-      </c>
-      <c r="F202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="B203" t="s">
+      <c r="C206" t="s">
+        <v>62</v>
+      </c>
+      <c r="D206">
+        <v>2</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="B207" t="s">
         <v>119</v>
       </c>
-      <c r="C203" t="s">
-        <v>63</v>
-      </c>
-      <c r="D203">
-        <v>2</v>
-      </c>
-      <c r="F203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205" t="s">
+      <c r="C207" t="s">
+        <v>62</v>
+      </c>
+      <c r="D207">
+        <v>2</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="206" spans="1:6" s="1" customFormat="1">
-      <c r="A206" s="1" t="s">
+    <row r="210" spans="1:2" s="1" customFormat="1">
+      <c r="A210" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B210" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
-      <c r="A207" t="s">
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
         <v>107</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B211" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
-      <c r="B208" t="s">
+    <row r="212" spans="1:2">
+      <c r="B212" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
-      <c r="A209" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
-      <c r="A210" t="s">
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
         <v>106</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B214" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
-      <c r="B211" t="s">
+    <row r="215" spans="1:2">
+      <c r="B215" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
-      <c r="A212" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
-      <c r="A213" t="s">
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
         <v>103</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B217" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
-      <c r="B214" t="s">
+    <row r="218" spans="1:2">
+      <c r="B218" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
-      <c r="A215" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
-      <c r="A216" t="s">
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
         <v>30</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B220" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
-      <c r="B217" t="s">
+    <row r="221" spans="1:2">
+      <c r="B221" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
-      <c r="B218" t="s">
+    <row r="222" spans="1:2">
+      <c r="B222" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
-      <c r="A219" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
-      <c r="A220" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" s="1" customFormat="1">
-      <c r="A221" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B221" s="1" t="s">
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" s="1" customFormat="1">
+      <c r="A225" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C221" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D221" s="1" t="s">
+      <c r="C225" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D225" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E221" s="1" t="s">
+      <c r="E225" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F221" s="1" t="s">
+      <c r="F225" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G221" s="1" t="s">
+      <c r="G225" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H221" s="1" t="s">
+      <c r="H225" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
-      <c r="A222" t="s">
+    <row r="226" spans="1:8">
+      <c r="A226" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
-      <c r="B223" t="s">
+    <row r="227" spans="1:8">
+      <c r="B227" t="s">
         <v>123</v>
       </c>
-      <c r="C223" t="s">
-        <v>50</v>
-      </c>
-      <c r="D223">
+      <c r="C227" t="s">
+        <v>10</v>
+      </c>
+      <c r="D227">
         <v>4</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E227" t="s">
         <v>11</v>
       </c>
-      <c r="G223" t="s">
+      <c r="G227" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
-      <c r="A224" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
-      <c r="A225" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" s="1" customFormat="1">
-      <c r="A226" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
-      <c r="A227" t="s">
-        <v>30</v>
-      </c>
-      <c r="B227" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="228" spans="1:8">
-      <c r="B228" t="s">
-        <v>123</v>
+      <c r="A228" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
-      <c r="A230" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" s="1" customFormat="1">
-      <c r="A231" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B231" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" s="1" customFormat="1">
+      <c r="A230" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" t="s">
+        <v>30</v>
+      </c>
+      <c r="B231" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="B232" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" s="1" customFormat="1">
+      <c r="A235" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C231" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D231" s="1" t="s">
+      <c r="C235" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D235" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E231" s="1" t="s">
+      <c r="E235" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F231" s="1" t="s">
+      <c r="F235" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G231" s="1" t="s">
+      <c r="G235" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H231" s="1" t="s">
+      <c r="H235" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
-      <c r="A232" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
-      <c r="B233" t="s">
-        <v>126</v>
-      </c>
-      <c r="C233" t="s">
-        <v>21</v>
-      </c>
-      <c r="D233">
-        <v>8</v>
-      </c>
-      <c r="E233" t="s">
-        <v>11</v>
-      </c>
-      <c r="G233" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
-      <c r="B234" t="s">
-        <v>127</v>
-      </c>
-      <c r="C234" t="s">
-        <v>21</v>
-      </c>
-      <c r="D234">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
-      <c r="A235" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" s="1" customFormat="1">
-      <c r="A237" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>29</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="B237" t="s">
+        <v>126</v>
+      </c>
+      <c r="C237" t="s">
+        <v>21</v>
+      </c>
+      <c r="D237">
+        <v>8</v>
+      </c>
+      <c r="E237" t="s">
+        <v>11</v>
+      </c>
+      <c r="G237" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="238" spans="1:8">
-      <c r="A238" t="s">
-        <v>30</v>
-      </c>
       <c r="B238" t="s">
-        <v>31</v>
+        <v>127</v>
+      </c>
+      <c r="C238" t="s">
+        <v>21</v>
+      </c>
+      <c r="D238">
+        <v>8</v>
       </c>
     </row>
     <row r="239" spans="1:8">
-      <c r="B239" t="s">
-        <v>126</v>
+      <c r="A239" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="240" spans="1:8">
       <c r="A240" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="A241" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" s="1" customFormat="1">
-      <c r="A242" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" s="1" customFormat="1">
-      <c r="A243" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" s="1" customFormat="1">
+      <c r="A241" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>30</v>
+      </c>
+      <c r="B242" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="B243" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>56</v>
-      </c>
-      <c r="B244" t="s">
-        <v>8</v>
-      </c>
-      <c r="C244" t="s">
-        <v>135</v>
-      </c>
-      <c r="D244" t="s">
-        <v>42</v>
-      </c>
-      <c r="E244" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -3067,43 +3080,43 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
-      <c r="A246" t="s">
-        <v>57</v>
-      </c>
-      <c r="B246" t="s">
-        <v>32</v>
-      </c>
-      <c r="C246" t="s">
-        <v>136</v>
-      </c>
-      <c r="D246" t="s">
-        <v>42</v>
-      </c>
-      <c r="E246" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="A247" t="s">
-        <v>26</v>
+    <row r="246" spans="1:5" s="1" customFormat="1">
+      <c r="A246" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" s="1" customFormat="1">
+      <c r="A247" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="B248" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D248" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="E248" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -3113,19 +3126,19 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C250" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D250" t="s">
         <v>42</v>
       </c>
       <c r="E250" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -3135,19 +3148,19 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="B252" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C252" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D252" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="E252" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -3157,7 +3170,7 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B254" t="s">
         <v>73</v>
@@ -3166,7 +3179,7 @@
         <v>137</v>
       </c>
       <c r="D254" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="E254" t="s">
         <v>137</v>
@@ -3179,19 +3192,19 @@
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B256" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C256" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D256" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E256" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -3201,19 +3214,19 @@
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B258" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C258" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D258" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E258" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -3223,23 +3236,67 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B260" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C260" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D260" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="E260" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
+        <v>72</v>
+      </c>
+      <c r="B262" t="s">
+        <v>96</v>
+      </c>
+      <c r="C262" t="s">
+        <v>139</v>
+      </c>
+      <c r="D262" t="s">
+        <v>66</v>
+      </c>
+      <c r="E262" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
+        <v>95</v>
+      </c>
+      <c r="B264" t="s">
+        <v>96</v>
+      </c>
+      <c r="C264" t="s">
+        <v>139</v>
+      </c>
+      <c r="D264" t="s">
+        <v>91</v>
+      </c>
+      <c r="E264" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" t="s">
         <v>26</v>
       </c>
     </row>
